--- a/CorrelationData.xlsx
+++ b/CorrelationData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="19">
   <si>
     <t>Cation</t>
   </si>
@@ -22,13 +22,25 @@
     <t>Anion</t>
   </si>
   <si>
-    <t>q R2</t>
-  </si>
-  <si>
-    <t>f(q) R2</t>
-  </si>
-  <si>
-    <t>f(q,d) R2</t>
+    <t>f(q, k=18.8) R2</t>
+  </si>
+  <si>
+    <t>f(q, V, k=18.8) R2</t>
+  </si>
+  <si>
+    <t>f(q, V, k=13.45) R2</t>
+  </si>
+  <si>
+    <t>TEPA</t>
+  </si>
+  <si>
+    <t>BPy</t>
+  </si>
+  <si>
+    <t>Pyr14</t>
+  </si>
+  <si>
+    <t>BMIm</t>
   </si>
   <si>
     <t>EMIm</t>
@@ -416,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,16 +459,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>0.925669721502303</v>
+        <v>0.4957108072135684</v>
       </c>
       <c r="E2">
-        <v>0.871740912836268</v>
+        <v>0.7063851622746012</v>
       </c>
       <c r="F2">
-        <v>0.8592724358293123</v>
+        <v>0.7063851622746012</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -467,16 +479,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>0.5954847402727517</v>
+        <v>0.5228977098405247</v>
       </c>
       <c r="E3">
-        <v>0.8659518131190791</v>
+        <v>0.7294257365367232</v>
       </c>
       <c r="F3">
-        <v>0.8799778794063051</v>
+        <v>0.7294257365367232</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -487,16 +499,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>0.6546722972650971</v>
+        <v>0.5372550287592532</v>
       </c>
       <c r="E4">
-        <v>0.8626491652973869</v>
+        <v>0.7233854050030174</v>
       </c>
       <c r="F4">
-        <v>0.8779803635504931</v>
+        <v>0.7233854050030174</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -507,16 +519,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>0.5632126574842659</v>
+        <v>0.3512692999739441</v>
       </c>
       <c r="E5">
-        <v>0.8619545330620332</v>
+        <v>0.7430309370617918</v>
       </c>
       <c r="F5">
-        <v>0.8812421135219967</v>
+        <v>0.7430309370617918</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -527,16 +539,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>0.09000928202276882</v>
+        <v>0.5489975132387089</v>
       </c>
       <c r="E6">
-        <v>0.9371943278197993</v>
+        <v>0.745880983606013</v>
       </c>
       <c r="F6">
-        <v>0.950137285638576</v>
+        <v>0.745880983606013</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -547,16 +559,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>0.5989058964533041</v>
+        <v>0.5130194674246045</v>
       </c>
       <c r="E7">
-        <v>0.8380591084576262</v>
+        <v>0.5619127721768378</v>
       </c>
       <c r="F7">
-        <v>0.853606624941935</v>
+        <v>0.5619127721768378</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -567,16 +579,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>0.577224301155602</v>
+        <v>0.5731253157281649</v>
       </c>
       <c r="E8">
-        <v>0.8135144451830171</v>
+        <v>0.5512289566065562</v>
       </c>
       <c r="F8">
-        <v>0.827970604826779</v>
+        <v>0.5512289566065562</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -587,16 +599,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>0.5220944818254813</v>
+        <v>0.633472389227709</v>
       </c>
       <c r="E9">
-        <v>0.7754126052916718</v>
+        <v>0.5474688115809527</v>
       </c>
       <c r="F9">
-        <v>0.7935603496190961</v>
+        <v>0.5474688115809527</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -607,16 +619,653 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>0.5580965325367412</v>
+      </c>
+      <c r="E10">
+        <v>0.8590806535892517</v>
+      </c>
+      <c r="F10">
+        <v>0.8590806535892517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="D10">
-        <v>0.4623975019126144</v>
-      </c>
-      <c r="E10">
-        <v>0.792671387482464</v>
-      </c>
-      <c r="F10">
-        <v>0.7873425664997099</v>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>0.5286987114220407</v>
+      </c>
+      <c r="E11">
+        <v>0.8331988556387849</v>
+      </c>
+      <c r="F11">
+        <v>0.8331988556387849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>0.6092182953825165</v>
+      </c>
+      <c r="E12">
+        <v>0.8439280980812609</v>
+      </c>
+      <c r="F12">
+        <v>0.8439280980812609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>0.6071431238965095</v>
+      </c>
+      <c r="E13">
+        <v>0.8572848236800736</v>
+      </c>
+      <c r="F13">
+        <v>0.8572848236800736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>0.589716490573655</v>
+      </c>
+      <c r="E14">
+        <v>0.9061291364376127</v>
+      </c>
+      <c r="F14">
+        <v>0.9061291364376127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>0.4571663665396927</v>
+      </c>
+      <c r="E15">
+        <v>0.5968500094165983</v>
+      </c>
+      <c r="F15">
+        <v>0.5968500094165983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>0.4692587544974839</v>
+      </c>
+      <c r="E16">
+        <v>0.7575172091566603</v>
+      </c>
+      <c r="F16">
+        <v>0.7575172091566603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>0.2925017062983265</v>
+      </c>
+      <c r="E17">
+        <v>0.3550741042832676</v>
+      </c>
+      <c r="F17">
+        <v>0.3550741042832676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>0.0820595233811926</v>
+      </c>
+      <c r="E18">
+        <v>0.9178882518745316</v>
+      </c>
+      <c r="F18">
+        <v>0.9178882518745316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>0.04255781381670487</v>
+      </c>
+      <c r="E19">
+        <v>0.9502195457085818</v>
+      </c>
+      <c r="F19">
+        <v>0.9502195457085818</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>0.05961977783791272</v>
+      </c>
+      <c r="E20">
+        <v>0.9362891347754575</v>
+      </c>
+      <c r="F20">
+        <v>0.9362891347754575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>0.06963751396923379</v>
+      </c>
+      <c r="E21">
+        <v>0.9349119394468964</v>
+      </c>
+      <c r="F21">
+        <v>0.9349119394468964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>0.06710445878532356</v>
+      </c>
+      <c r="E22">
+        <v>0.9494844706930831</v>
+      </c>
+      <c r="F22">
+        <v>0.9494844706930831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>0.05951478518470776</v>
+      </c>
+      <c r="E23">
+        <v>0.7455835639320876</v>
+      </c>
+      <c r="F23">
+        <v>0.7455835639320876</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>0.05868832308998595</v>
+      </c>
+      <c r="E24">
+        <v>0.7282167985125836</v>
+      </c>
+      <c r="F24">
+        <v>0.7282167985125836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>0.0361212700652952</v>
+      </c>
+      <c r="E25">
+        <v>0.7989023841779704</v>
+      </c>
+      <c r="F25">
+        <v>0.7989023841779704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>0.2455209843571629</v>
+      </c>
+      <c r="E26">
+        <v>0.9539344576954327</v>
+      </c>
+      <c r="F26">
+        <v>0.9539344576954327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>0.2320812483363448</v>
+      </c>
+      <c r="E27">
+        <v>0.9488541380802353</v>
+      </c>
+      <c r="F27">
+        <v>0.9488541380802353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>0.2124729558154791</v>
+      </c>
+      <c r="E28">
+        <v>0.9548420678228352</v>
+      </c>
+      <c r="F28">
+        <v>0.9548420678228352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>0.2081632239879018</v>
+      </c>
+      <c r="E29">
+        <v>0.9627218159499918</v>
+      </c>
+      <c r="F29">
+        <v>0.9627218159499918</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>0.2508460880743661</v>
+      </c>
+      <c r="E30">
+        <v>0.9652654517511545</v>
+      </c>
+      <c r="F30">
+        <v>0.9652654517511545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>0.2520079183750658</v>
+      </c>
+      <c r="E31">
+        <v>0.9065041592850847</v>
+      </c>
+      <c r="F31">
+        <v>0.9065041592850847</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>0.2532791662813595</v>
+      </c>
+      <c r="E32">
+        <v>0.8923640698217475</v>
+      </c>
+      <c r="F32">
+        <v>0.8923640698217475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>0.2226532491034293</v>
+      </c>
+      <c r="E33">
+        <v>0.9138971165135958</v>
+      </c>
+      <c r="F33">
+        <v>0.9138971165135958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>0.5921927770076028</v>
+      </c>
+      <c r="E34">
+        <v>0.7442702667263977</v>
+      </c>
+      <c r="F34">
+        <v>0.7442702667263977</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>0.5954847402727523</v>
+      </c>
+      <c r="E35">
+        <v>0.7228776527815868</v>
+      </c>
+      <c r="F35">
+        <v>0.7228776527815868</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>0.654672297265104</v>
+      </c>
+      <c r="E36">
+        <v>0.7156149429445298</v>
+      </c>
+      <c r="F36">
+        <v>0.7156149429445298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>0.5632126574842764</v>
+      </c>
+      <c r="E37">
+        <v>0.7723844334328143</v>
+      </c>
+      <c r="F37">
+        <v>0.7723844334328143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>0.5027657353045483</v>
+      </c>
+      <c r="E38">
+        <v>0.7691523223828824</v>
+      </c>
+      <c r="F38">
+        <v>0.7691523223828824</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>0.598905896453294</v>
+      </c>
+      <c r="E39">
+        <v>0.7067641974704417</v>
+      </c>
+      <c r="F39">
+        <v>0.7067641974704417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>0.5772243011555811</v>
+      </c>
+      <c r="E40">
+        <v>0.692826611659651</v>
+      </c>
+      <c r="F40">
+        <v>0.692826611659651</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41">
+        <v>0.52209448182546</v>
+      </c>
+      <c r="E41">
+        <v>0.6523375142884937</v>
+      </c>
+      <c r="F41">
+        <v>0.6523375142884937</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>0.2778039038970092</v>
+      </c>
+      <c r="E42">
+        <v>0.8310176351410257</v>
       </c>
     </row>
   </sheetData>
